--- a/10th week/Dung + Cung/SE18_BlackBoxTestCase_StaffManagement_v4.0.xlsx
+++ b/10th week/Dung + Cung/SE18_BlackBoxTestCase_StaffManagement_v4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7320" tabRatio="821" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7320" tabRatio="821" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="297">
   <si>
     <t>Module Code</t>
   </si>
@@ -2872,33 +2872,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>You need to choose another year of birth to ensure that your age between 1 and 100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
-Type: MessageBox
-Location: Center of screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Show a message
-Content: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>The Address must less than 100 characters.</t>
     </r>
     <r>
@@ -3777,6 +3750,87 @@
   </si>
   <si>
     <t>Test case SMA01, SMA02, SMA03, SMA04, SMA05, SMA06, SMA07, SMA08, SMA09, SMA10, SMA11, SMA12, SMA13, SMA14, SMA15, SMA16, SMA17, SMA18, SMA19 passed.</t>
+  </si>
+  <si>
+    <r>
+      <t>Show a message
+Content: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>The name is incorrect.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+Type: MessageBox
+Location: Center of screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Show a message
+Content: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>The phone Number is incorrect.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+Type: MessageBox
+Location: Center of screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Show a message
+Content: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>The salary is incorrect.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+Type: MessageBox
+Location: Center of screen</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7235,70 +7289,40 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>495652</xdr:colOff>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="18" name="Picture 17"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828799" y="1005840"/>
-          <a:ext cx="4762853" cy="3703320"/>
+          <a:off x="1844039" y="1021080"/>
+          <a:ext cx="4739641" cy="3741420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -9870,13 +9894,13 @@
   <sheetData>
     <row r="2" spans="1:15" ht="13.8">
       <c r="I2" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="O2" s="103" t="s">
         <v>262</v>
-      </c>
-      <c r="O2" s="103" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="13.8">
@@ -9891,7 +9915,7 @@
     </row>
     <row r="20" spans="1:1" ht="13.8">
       <c r="A20" s="103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -10375,7 +10399,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D11" s="93" t="s">
         <v>57</v>
@@ -10396,7 +10420,7 @@
         <v>133</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>57</v>
@@ -10417,7 +10441,7 @@
         <v>133</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D13" s="95" t="s">
         <v>228</v>
@@ -10459,7 +10483,7 @@
         <v>195</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D15" s="95" t="s">
         <v>228</v>
@@ -10500,7 +10524,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="95" t="s">
         <v>228</v>
@@ -10520,10 +10544,10 @@
         <v>211</v>
       </c>
       <c r="C18" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="92" t="s">
         <v>264</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>265</v>
       </c>
       <c r="E18" s="95" t="s">
         <v>193</v>
@@ -10540,7 +10564,7 @@
         <v>211</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="95" t="s">
         <v>228</v>
@@ -10560,7 +10584,7 @@
         <v>197</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="92" t="s">
         <v>199</v>
@@ -10580,7 +10604,7 @@
         <v>197</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="95" t="s">
         <v>230</v>
@@ -10600,7 +10624,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="92" t="s">
         <v>200</v>
@@ -10620,7 +10644,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D23" s="95" t="s">
         <v>228</v>
@@ -10646,7 +10670,7 @@
         <v>227</v>
       </c>
       <c r="E24" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
@@ -10666,7 +10690,7 @@
         <v>201</v>
       </c>
       <c r="E25" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
@@ -10686,7 +10710,7 @@
         <v>202</v>
       </c>
       <c r="E26" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F26" s="90"/>
       <c r="G26" s="90"/>
@@ -10796,8 +10820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -10905,7 +10929,7 @@
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="20">
         <f>COUNTIF(F10:F1031,"Pass")</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B6" s="21">
         <f>COUNTIF(F10:F1031,"Fail")</f>
@@ -10913,7 +10937,7 @@
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D6" s="22">
         <f>COUNTIF(F$10:F$1031,"N/A")</f>
@@ -10998,7 +11022,9 @@
       <c r="E10" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="30"/>
@@ -11019,7 +11045,9 @@
       <c r="E11" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
@@ -11035,12 +11063,14 @@
         <v>166</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="E12" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="30"/>
@@ -11056,12 +11086,14 @@
         <v>167</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="E13" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="30"/>
@@ -11077,12 +11109,14 @@
         <v>168</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="E14" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="30"/>
@@ -11098,12 +11132,14 @@
         <v>169</v>
       </c>
       <c r="D15" s="95" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="E15" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
       <c r="I15" s="30"/>
@@ -11124,7 +11160,9 @@
       <c r="E16" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
       <c r="I16" s="30"/>
@@ -11140,12 +11178,14 @@
         <v>159</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E17" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
       <c r="I17" s="30"/>
@@ -11161,12 +11201,14 @@
         <v>171</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
       <c r="I18" s="30"/>
@@ -11182,12 +11224,14 @@
         <v>172</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="E19" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
       <c r="I19" s="30"/>
@@ -11203,12 +11247,14 @@
         <v>173</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="E20" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
       <c r="I20" s="30"/>
@@ -11224,12 +11270,14 @@
         <v>174</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="E21" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
       <c r="I21" s="30"/>
@@ -11245,12 +11293,14 @@
         <v>175</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="E22" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
       <c r="I22" s="30"/>
@@ -11266,12 +11316,14 @@
         <v>170</v>
       </c>
       <c r="D23" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
       <c r="I23" s="30"/>
@@ -11292,7 +11344,9 @@
       <c r="E24" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>
       <c r="I24" s="30"/>
@@ -11308,12 +11362,14 @@
         <v>172</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E25" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
       <c r="I25" s="30"/>
@@ -11329,12 +11385,14 @@
         <v>173</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E26" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
       <c r="I26" s="30"/>
@@ -11350,12 +11408,14 @@
         <v>174</v>
       </c>
       <c r="D27" s="95" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E27" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
       <c r="I27" s="30"/>
@@ -11371,12 +11431,14 @@
         <v>175</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="E28" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
       <c r="I28" s="30"/>
@@ -11395,9 +11457,11 @@
         <v>155</v>
       </c>
       <c r="E29" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="F29" s="31"/>
+        <v>293</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
       <c r="I29" s="30"/>
@@ -11416,9 +11480,11 @@
         <v>151</v>
       </c>
       <c r="E30" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="F30" s="31"/>
+        <v>293</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
       <c r="I30" s="30"/>
@@ -11437,9 +11503,11 @@
         <v>152</v>
       </c>
       <c r="E31" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="F31" s="31"/>
+        <v>293</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G31" s="31"/>
       <c r="H31" s="32"/>
       <c r="I31" s="30"/>
@@ -11458,9 +11526,11 @@
         <v>154</v>
       </c>
       <c r="E32" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="F32" s="31"/>
+        <v>293</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G32" s="31"/>
       <c r="H32" s="32"/>
       <c r="I32" s="30"/>
@@ -11481,14 +11551,16 @@
       <c r="E33" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G33" s="31"/>
       <c r="H33" s="32"/>
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" s="88" customFormat="1" ht="39.6">
       <c r="A34" s="91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="100" t="s">
         <v>110</v>
@@ -11502,7 +11574,9 @@
       <c r="E34" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G34" s="31"/>
       <c r="H34" s="32"/>
       <c r="I34" s="30"/>
@@ -11609,8 +11683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -11718,7 +11792,7 @@
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="20">
         <f>COUNTIF(F10:F1028,"Pass")</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B6" s="21">
         <f>COUNTIF(F10:F1028,"Fail")</f>
@@ -11726,7 +11800,7 @@
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D6" s="22">
         <f>COUNTIF(F$10:F$1028,"N/A")</f>
@@ -11811,7 +11885,9 @@
       <c r="E10" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="30"/>
@@ -11832,7 +11908,9 @@
       <c r="E11" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
@@ -11853,7 +11931,9 @@
       <c r="E12" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="30"/>
@@ -11874,7 +11954,9 @@
       <c r="E13" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="30"/>
@@ -11895,7 +11977,9 @@
       <c r="E14" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="30"/>
@@ -11916,7 +12000,9 @@
       <c r="E15" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
       <c r="I15" s="30"/>
@@ -11937,7 +12023,9 @@
       <c r="E16" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
       <c r="I16" s="30"/>
@@ -11953,12 +12041,14 @@
         <v>183</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E17" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
       <c r="I17" s="30"/>
@@ -11974,12 +12064,14 @@
         <v>182</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
       <c r="I18" s="30"/>
@@ -11995,12 +12087,14 @@
         <v>184</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
       <c r="I19" s="30"/>
@@ -12016,12 +12110,14 @@
         <v>185</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
       <c r="I20" s="30"/>
@@ -12037,12 +12133,14 @@
         <v>186</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E21" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
       <c r="I21" s="30"/>
@@ -12058,12 +12156,14 @@
         <v>187</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
       <c r="I22" s="30"/>
@@ -12079,12 +12179,14 @@
         <v>182</v>
       </c>
       <c r="D23" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
       <c r="I23" s="30"/>
@@ -12105,7 +12207,9 @@
       <c r="E24" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>
       <c r="I24" s="30"/>
@@ -12121,12 +12225,14 @@
         <v>184</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
       <c r="I25" s="30"/>
@@ -12142,12 +12248,14 @@
         <v>185</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
       <c r="I26" s="30"/>
@@ -12163,12 +12271,14 @@
         <v>186</v>
       </c>
       <c r="D27" s="95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
       <c r="I27" s="30"/>
@@ -12184,12 +12294,14 @@
         <v>187</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
       <c r="I28" s="30"/>
@@ -12208,9 +12320,11 @@
         <v>151</v>
       </c>
       <c r="E29" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="F29" s="31"/>
+        <v>240</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
       <c r="I29" s="30"/>
@@ -12229,16 +12343,18 @@
         <v>191</v>
       </c>
       <c r="E30" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30" s="31"/>
+        <v>240</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" s="88" customFormat="1" ht="26.4">
       <c r="A31" s="91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="100" t="s">
         <v>110</v>
@@ -12252,7 +12368,9 @@
       <c r="E31" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>1</v>
+      </c>
       <c r="G31" s="31"/>
       <c r="H31" s="32"/>
       <c r="I31" s="30"/>
@@ -12584,7 +12702,7 @@
         <v>211</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>216</v>
@@ -12605,7 +12723,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="95" t="s">
         <v>228</v>
@@ -12626,7 +12744,7 @@
         <v>197</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>199</v>
@@ -12647,7 +12765,7 @@
         <v>197</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="95" t="s">
         <v>230</v>
@@ -12668,10 +12786,10 @@
         <v>197</v>
       </c>
       <c r="C15" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>277</v>
-      </c>
-      <c r="D15" s="95" t="s">
-        <v>278</v>
       </c>
       <c r="E15" s="95" t="s">
         <v>131</v>
@@ -12689,7 +12807,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D16" s="92" t="s">
         <v>200</v>
@@ -12710,7 +12828,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="95" t="s">
         <v>228</v>
@@ -12731,10 +12849,10 @@
         <v>64</v>
       </c>
       <c r="C18" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="95" t="s">
         <v>279</v>
-      </c>
-      <c r="D18" s="95" t="s">
-        <v>280</v>
       </c>
       <c r="E18" s="95" t="s">
         <v>131</v>
@@ -12755,10 +12873,10 @@
         <v>217</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -12767,7 +12885,7 @@
     </row>
     <row r="20" spans="1:11" s="88" customFormat="1" ht="66">
       <c r="A20" s="91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="99" t="s">
         <v>126</v>
@@ -12779,7 +12897,7 @@
         <v>227</v>
       </c>
       <c r="E20" s="95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -12788,7 +12906,7 @@
     </row>
     <row r="21" spans="1:11" s="88" customFormat="1" ht="105.6">
       <c r="A21" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="99" t="s">
         <v>126</v>
@@ -12797,10 +12915,10 @@
         <v>217</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
@@ -12809,7 +12927,7 @@
     </row>
     <row r="22" spans="1:11" s="88" customFormat="1" ht="66">
       <c r="A22" s="91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B22" s="99" t="s">
         <v>126</v>
@@ -12818,10 +12936,10 @@
         <v>217</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22" s="95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
@@ -12830,7 +12948,7 @@
     </row>
     <row r="23" spans="1:11" s="88" customFormat="1" ht="79.2">
       <c r="A23" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" s="99" t="s">
         <v>126</v>
@@ -12839,10 +12957,10 @@
         <v>217</v>
       </c>
       <c r="D23" s="95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E23" s="95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -12946,7 +13064,7 @@
     </row>
     <row r="3" spans="1:18" ht="13.8">
       <c r="J3" s="103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="13.8">
@@ -12956,37 +13074,37 @@
     </row>
     <row r="9" spans="1:18" ht="13.8">
       <c r="A9" s="103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="13.8">
       <c r="A14" s="103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="13.8">
       <c r="R16" s="103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="13.8">
       <c r="A18" s="103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="13.8">
       <c r="Q21" s="103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="13.8">
       <c r="A22" s="103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="13.8">
       <c r="A26" s="103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -13009,7 +13127,7 @@
     </row>
     <row r="4" spans="1:16" ht="13.8">
       <c r="A4" s="103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="96"/>
     </row>
@@ -13025,12 +13143,12 @@
     </row>
     <row r="11" spans="1:16" ht="13.8">
       <c r="P11" s="103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="16:16" ht="13.8">
       <c r="P17" s="103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="16:16" ht="13.8">
@@ -13040,18 +13158,18 @@
     </row>
     <row r="21" spans="16:16" ht="13.8">
       <c r="P21" s="103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="7:14" ht="13.8">
       <c r="G34" s="103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L34" s="103" t="s">
         <v>158</v>
       </c>
       <c r="N34" s="103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -13073,7 +13191,7 @@
     </row>
     <row r="4" spans="1:15" ht="13.8">
       <c r="A4" s="103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="96"/>
     </row>
@@ -13089,12 +13207,12 @@
     </row>
     <row r="11" spans="1:15" ht="13.8">
       <c r="O11" s="103" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="15:15" ht="13.8">
       <c r="O17" s="103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="15:15" ht="13.8">
@@ -13104,15 +13222,15 @@
     </row>
     <row r="21" spans="15:15" ht="13.8">
       <c r="O21" s="103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="8:11" ht="13.8">
       <c r="H33" s="103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K33" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
